--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3327,28 +3327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1797.962406387573</v>
+        <v>1919.833161178334</v>
       </c>
       <c r="AB2" t="n">
-        <v>2460.051484922686</v>
+        <v>2626.800428185649</v>
       </c>
       <c r="AC2" t="n">
-        <v>2225.267623905609</v>
+        <v>2376.102282057166</v>
       </c>
       <c r="AD2" t="n">
-        <v>1797962.406387573</v>
+        <v>1919833.161178334</v>
       </c>
       <c r="AE2" t="n">
-        <v>2460051.484922686</v>
+        <v>2626800.428185649</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.462863773465922e-07</v>
+        <v>1.380825186633168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.36168981481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>2225267.623905608</v>
+        <v>2376102.282057166</v>
       </c>
     </row>
     <row r="3">
@@ -3433,28 +3433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1063.669154103073</v>
+        <v>1148.9531070528</v>
       </c>
       <c r="AB3" t="n">
-        <v>1455.359062415049</v>
+        <v>1572.048329303328</v>
       </c>
       <c r="AC3" t="n">
-        <v>1316.461636107429</v>
+        <v>1422.014243138305</v>
       </c>
       <c r="AD3" t="n">
-        <v>1063669.154103073</v>
+        <v>1148953.1070528</v>
       </c>
       <c r="AE3" t="n">
-        <v>1455359.062415049</v>
+        <v>1572048.329303328</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.049370028554698e-06</v>
+        <v>1.941609293041333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.48206018518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1316461.636107429</v>
+        <v>1422014.243138305</v>
       </c>
     </row>
     <row r="4">
@@ -3539,28 +3539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>891.9461403126865</v>
+        <v>977.230003753862</v>
       </c>
       <c r="AB4" t="n">
-        <v>1220.400059062353</v>
+        <v>1337.089203481084</v>
       </c>
       <c r="AC4" t="n">
-        <v>1103.926790267682</v>
+        <v>1209.479286517332</v>
       </c>
       <c r="AD4" t="n">
-        <v>891946.1403126864</v>
+        <v>977230.003753862</v>
       </c>
       <c r="AE4" t="n">
-        <v>1220400.059062353</v>
+        <v>1337089.203481084</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.169059448257223e-06</v>
+        <v>2.163066055908116e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.99768518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>1103926.790267682</v>
+        <v>1209479.286517332</v>
       </c>
     </row>
     <row r="5">
@@ -3645,28 +3645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>822.5664859582449</v>
+        <v>895.6548382942934</v>
       </c>
       <c r="AB5" t="n">
-        <v>1125.471755160278</v>
+        <v>1225.474463256995</v>
       </c>
       <c r="AC5" t="n">
-        <v>1018.058310457309</v>
+        <v>1108.516900447958</v>
       </c>
       <c r="AD5" t="n">
-        <v>822566.4859582449</v>
+        <v>895654.8382942934</v>
       </c>
       <c r="AE5" t="n">
-        <v>1125471.755160277</v>
+        <v>1225474.463256995</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.232344112909063e-06</v>
+        <v>2.280159254352378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.33217592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>1018058.310457309</v>
+        <v>1108516.900447958</v>
       </c>
     </row>
     <row r="6">
@@ -3751,28 +3751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>764.6992907602447</v>
+        <v>849.8978133468487</v>
       </c>
       <c r="AB6" t="n">
-        <v>1046.295305769898</v>
+        <v>1162.867683066431</v>
       </c>
       <c r="AC6" t="n">
-        <v>946.4383502719028</v>
+        <v>1051.885223489613</v>
       </c>
       <c r="AD6" t="n">
-        <v>764699.2907602447</v>
+        <v>849897.8133468487</v>
       </c>
       <c r="AE6" t="n">
-        <v>1046295.305769898</v>
+        <v>1162867.683066431</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.273571052122087e-06</v>
+        <v>2.356439885704034e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.93287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>946438.3502719027</v>
+        <v>1051885.223489613</v>
       </c>
     </row>
     <row r="7">
@@ -3857,28 +3857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>721.8250459538509</v>
+        <v>794.9986496359199</v>
       </c>
       <c r="AB7" t="n">
-        <v>987.6328725476028</v>
+        <v>1087.75222529697</v>
       </c>
       <c r="AC7" t="n">
-        <v>893.3745773431012</v>
+        <v>983.9386795844629</v>
       </c>
       <c r="AD7" t="n">
-        <v>721825.045953851</v>
+        <v>794998.64963592</v>
       </c>
       <c r="AE7" t="n">
-        <v>987632.8725476027</v>
+        <v>1087752.22529697</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.309808743914427e-06</v>
+        <v>2.423489103070459e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.60300925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>893374.5773431013</v>
+        <v>983938.6795844629</v>
       </c>
     </row>
     <row r="8">
@@ -3963,28 +3963,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>704.9721328780826</v>
+        <v>778.1457365601517</v>
       </c>
       <c r="AB8" t="n">
-        <v>964.5739733792851</v>
+        <v>1064.693326128652</v>
       </c>
       <c r="AC8" t="n">
-        <v>872.5163871480397</v>
+        <v>963.0804893894011</v>
       </c>
       <c r="AD8" t="n">
-        <v>704972.1328780826</v>
+        <v>778145.7365601517</v>
       </c>
       <c r="AE8" t="n">
-        <v>964573.9733792851</v>
+        <v>1064693.326128652</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.319944793937502e-06</v>
+        <v>2.442243449377299e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.51331018518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>872516.3871480398</v>
+        <v>963080.4893894012</v>
       </c>
     </row>
     <row r="9">
@@ -4069,28 +4069,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>678.465473302353</v>
+        <v>751.4684847838298</v>
       </c>
       <c r="AB9" t="n">
-        <v>928.3063923564829</v>
+        <v>1028.192333331003</v>
       </c>
       <c r="AC9" t="n">
-        <v>839.7101331561842</v>
+        <v>930.0631001148945</v>
       </c>
       <c r="AD9" t="n">
-        <v>678465.4733023529</v>
+        <v>751468.4847838298</v>
       </c>
       <c r="AE9" t="n">
-        <v>928306.3923564829</v>
+        <v>1028192.333331003</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.336540606410516e-06</v>
+        <v>2.472950047475545e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.36863425925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>839710.1331561841</v>
+        <v>930063.1001148944</v>
       </c>
     </row>
     <row r="10">
@@ -4175,28 +4175,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>657.9088475782638</v>
+        <v>730.9118590597407</v>
       </c>
       <c r="AB10" t="n">
-        <v>900.1799101464626</v>
+        <v>1000.065851120982</v>
       </c>
       <c r="AC10" t="n">
-        <v>814.2680029325224</v>
+        <v>904.6209698912328</v>
       </c>
       <c r="AD10" t="n">
-        <v>657908.8475782638</v>
+        <v>730911.8590597407</v>
       </c>
       <c r="AE10" t="n">
-        <v>900179.9101464626</v>
+        <v>1000065.851120982</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.34531117819214e-06</v>
+        <v>2.489177901533796e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.2962962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>814268.0029325224</v>
+        <v>904620.9698912328</v>
       </c>
     </row>
     <row r="11">
@@ -4281,28 +4281,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>658.1226838408844</v>
+        <v>731.125695322361</v>
       </c>
       <c r="AB11" t="n">
-        <v>900.4724903547701</v>
+        <v>1000.35843132929</v>
       </c>
       <c r="AC11" t="n">
-        <v>814.5326596963878</v>
+        <v>904.8856266550982</v>
       </c>
       <c r="AD11" t="n">
-        <v>658122.6838408844</v>
+        <v>731125.6953223611</v>
       </c>
       <c r="AE11" t="n">
-        <v>900472.4903547701</v>
+        <v>1000358.43132929</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.345731325343355e-06</v>
+        <v>2.489955283764131e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.29340277777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>814532.6596963878</v>
+        <v>904885.6266550983</v>
       </c>
     </row>
   </sheetData>
@@ -4578,28 +4578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1336.576002446892</v>
+        <v>1442.449411641347</v>
       </c>
       <c r="AB2" t="n">
-        <v>1828.762252119484</v>
+        <v>1973.622921384502</v>
       </c>
       <c r="AC2" t="n">
-        <v>1654.227749461141</v>
+        <v>1785.263119764732</v>
       </c>
       <c r="AD2" t="n">
-        <v>1336576.002446892</v>
+        <v>1442449.411641347</v>
       </c>
       <c r="AE2" t="n">
-        <v>1828762.252119484</v>
+        <v>1973622.921384502</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.834527103639789e-07</v>
+        <v>1.683997211329607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.79513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1654227.749461141</v>
+        <v>1785263.119764732</v>
       </c>
     </row>
     <row r="3">
@@ -4684,28 +4684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>867.2207624114419</v>
+        <v>949.3961551398704</v>
       </c>
       <c r="AB3" t="n">
-        <v>1186.569706211183</v>
+        <v>1299.005703864683</v>
       </c>
       <c r="AC3" t="n">
-        <v>1073.325158811429</v>
+        <v>1175.030422653793</v>
       </c>
       <c r="AD3" t="n">
-        <v>867220.7624114419</v>
+        <v>949396.1551398704</v>
       </c>
       <c r="AE3" t="n">
-        <v>1186569.706211183</v>
+        <v>1299005.703864683</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.164716758181107e-06</v>
+        <v>2.2201298946242e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.49826388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1073325.158811429</v>
+        <v>1175030.422653793</v>
       </c>
     </row>
     <row r="4">
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>749.1298434757524</v>
+        <v>819.6268649260352</v>
       </c>
       <c r="AB4" t="n">
-        <v>1024.992501119718</v>
+        <v>1121.449635977081</v>
       </c>
       <c r="AC4" t="n">
-        <v>927.1686553988623</v>
+        <v>1014.420056683877</v>
       </c>
       <c r="AD4" t="n">
-        <v>749129.8434757524</v>
+        <v>819626.8649260352</v>
       </c>
       <c r="AE4" t="n">
-        <v>1024992.501119718</v>
+        <v>1121449.635977081</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.271094004776806e-06</v>
+        <v>2.42290134409123e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36689814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>927168.6553988622</v>
+        <v>1014420.056683877</v>
       </c>
     </row>
     <row r="5">
@@ -4896,28 +4896,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>680.8545486013059</v>
+        <v>751.4368213976092</v>
       </c>
       <c r="AB5" t="n">
-        <v>931.5752305790737</v>
+        <v>1028.149010089086</v>
       </c>
       <c r="AC5" t="n">
-        <v>842.666998046654</v>
+        <v>930.0239115823815</v>
       </c>
       <c r="AD5" t="n">
-        <v>680854.5486013058</v>
+        <v>751436.8213976092</v>
       </c>
       <c r="AE5" t="n">
-        <v>931575.2305790738</v>
+        <v>1028149.010089086</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.327488071153893e-06</v>
+        <v>2.53039713803749e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.8431712962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>842666.998046654</v>
+        <v>930023.9115823815</v>
       </c>
     </row>
     <row r="6">
@@ -5002,28 +5002,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>634.0881315557692</v>
+        <v>704.4998121514805</v>
       </c>
       <c r="AB6" t="n">
-        <v>867.5873555886632</v>
+        <v>963.9277233238283</v>
       </c>
       <c r="AC6" t="n">
-        <v>784.7860360377815</v>
+        <v>871.931814290858</v>
       </c>
       <c r="AD6" t="n">
-        <v>634088.1315557692</v>
+        <v>704499.8121514805</v>
       </c>
       <c r="AE6" t="n">
-        <v>867587.3555886631</v>
+        <v>963927.7233238283</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370245422058293e-06</v>
+        <v>2.6118992477058e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.47280092592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>784786.0360377815</v>
+        <v>871931.814290858</v>
       </c>
     </row>
     <row r="7">
@@ -5108,28 +5108,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>608.6836891479948</v>
+        <v>679.095369743706</v>
       </c>
       <c r="AB7" t="n">
-        <v>832.8278767214466</v>
+        <v>929.1682444566118</v>
       </c>
       <c r="AC7" t="n">
-        <v>753.3439530484173</v>
+        <v>840.4897313014936</v>
       </c>
       <c r="AD7" t="n">
-        <v>608683.6891479947</v>
+        <v>679095.369743706</v>
       </c>
       <c r="AE7" t="n">
-        <v>832827.8767214466</v>
+        <v>929168.2444566118</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.383773478443549e-06</v>
+        <v>2.637685810993487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.3599537037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>753343.9530484173</v>
+        <v>840489.7313014936</v>
       </c>
     </row>
     <row r="8">
@@ -5214,28 +5214,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>598.6363952992069</v>
+        <v>669.048075894918</v>
       </c>
       <c r="AB8" t="n">
-        <v>819.080726022214</v>
+        <v>915.4210937573789</v>
       </c>
       <c r="AC8" t="n">
-        <v>740.908811117672</v>
+        <v>828.0545893707484</v>
       </c>
       <c r="AD8" t="n">
-        <v>598636.395299207</v>
+        <v>669048.0758949181</v>
       </c>
       <c r="AE8" t="n">
-        <v>819080.7260222139</v>
+        <v>915421.0937573789</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.39154260319492e-06</v>
+        <v>2.652494961797259e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.2962962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>740908.811117672</v>
+        <v>828054.5893707484</v>
       </c>
     </row>
     <row r="9">
@@ -5320,28 +5320,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>601.2721585909737</v>
+        <v>671.683839186685</v>
       </c>
       <c r="AB9" t="n">
-        <v>822.6870936396788</v>
+        <v>919.0274613748442</v>
       </c>
       <c r="AC9" t="n">
-        <v>744.170992071295</v>
+        <v>831.3167703243714</v>
       </c>
       <c r="AD9" t="n">
-        <v>601272.1585909737</v>
+        <v>671683.8391866849</v>
       </c>
       <c r="AE9" t="n">
-        <v>822687.0936396788</v>
+        <v>919027.4613748442</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.391433944107488e-06</v>
+        <v>2.652287840806997e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.29918981481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>744170.992071295</v>
+        <v>831316.7703243714</v>
       </c>
     </row>
   </sheetData>
@@ -5617,28 +5617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.0764051354872</v>
+        <v>682.1499103732313</v>
       </c>
       <c r="AB2" t="n">
-        <v>833.3652080609406</v>
+        <v>933.3476017027504</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.8300022390191</v>
+        <v>844.2702165578255</v>
       </c>
       <c r="AD2" t="n">
-        <v>609076.4051354872</v>
+        <v>682149.9103732313</v>
       </c>
       <c r="AE2" t="n">
-        <v>833365.2080609406</v>
+        <v>933347.6017027503</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.319720725322786e-06</v>
+        <v>2.810659770151303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.29282407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>753830.0022390191</v>
+        <v>844270.2165578254</v>
       </c>
     </row>
     <row r="3">
@@ -5723,28 +5723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>460.3737979326856</v>
+        <v>523.154452879831</v>
       </c>
       <c r="AB3" t="n">
-        <v>629.9037405900401</v>
+        <v>715.8030023757459</v>
       </c>
       <c r="AC3" t="n">
-        <v>569.7866116635785</v>
+        <v>647.4877684648276</v>
       </c>
       <c r="AD3" t="n">
-        <v>460373.7979326856</v>
+        <v>523154.452879831</v>
       </c>
       <c r="AE3" t="n">
-        <v>629903.7405900401</v>
+        <v>715803.0023757459</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.504987229828572e-06</v>
+        <v>3.205228939960774e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.65509259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>569786.6116635784</v>
+        <v>647487.7684648276</v>
       </c>
     </row>
     <row r="4">
@@ -5829,28 +5829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>462.3129395228039</v>
+        <v>525.0935944699493</v>
       </c>
       <c r="AB4" t="n">
-        <v>632.5569596625292</v>
+        <v>718.4562214482348</v>
       </c>
       <c r="AC4" t="n">
-        <v>572.1866112316054</v>
+        <v>649.8877680328544</v>
       </c>
       <c r="AD4" t="n">
-        <v>462312.9395228039</v>
+        <v>525093.5944699493</v>
       </c>
       <c r="AE4" t="n">
-        <v>632556.9596625292</v>
+        <v>718456.2214482349</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.505775339958995e-06</v>
+        <v>3.206907408287843e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.64930555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>572186.6112316054</v>
+        <v>649887.7680328544</v>
       </c>
     </row>
   </sheetData>
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>821.3083730926335</v>
+        <v>908.9974006076646</v>
       </c>
       <c r="AB2" t="n">
-        <v>1123.750349633526</v>
+        <v>1243.730345646455</v>
       </c>
       <c r="AC2" t="n">
-        <v>1016.501193458023</v>
+        <v>1125.03046704446</v>
       </c>
       <c r="AD2" t="n">
-        <v>821308.3730926334</v>
+        <v>908997.4006076646</v>
       </c>
       <c r="AE2" t="n">
-        <v>1123750.349633526</v>
+        <v>1243730.345646455</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.145787141134788e-06</v>
+        <v>2.326344031396514e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.64699074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>1016501.193458023</v>
+        <v>1125030.46704446</v>
       </c>
     </row>
     <row r="3">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>600.3358176882427</v>
+        <v>666.0813426194243</v>
       </c>
       <c r="AB3" t="n">
-        <v>821.4059507081171</v>
+        <v>911.3618784068134</v>
       </c>
       <c r="AC3" t="n">
-        <v>743.0121196230261</v>
+        <v>824.3827798360962</v>
       </c>
       <c r="AD3" t="n">
-        <v>600335.8176882428</v>
+        <v>666081.3426194242</v>
       </c>
       <c r="AE3" t="n">
-        <v>821405.9507081171</v>
+        <v>911361.8784068134</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.376034911447863e-06</v>
+        <v>2.793826609076417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.19618055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>743012.1196230261</v>
+        <v>824382.7798360962</v>
       </c>
     </row>
     <row r="4">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>517.8996858206664</v>
+        <v>583.5598698972761</v>
       </c>
       <c r="AB4" t="n">
-        <v>708.6131982614356</v>
+        <v>798.4523588379341</v>
       </c>
       <c r="AC4" t="n">
-        <v>640.9841491642335</v>
+        <v>722.2491863453648</v>
       </c>
       <c r="AD4" t="n">
-        <v>517899.6858206664</v>
+        <v>583559.8698972762</v>
       </c>
       <c r="AE4" t="n">
-        <v>708613.1982614356</v>
+        <v>798452.3588379341</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.459608472410367e-06</v>
+        <v>2.963509831856453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.49884259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>640984.1491642335</v>
+        <v>722249.1863453648</v>
       </c>
     </row>
     <row r="5">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>511.1602724584573</v>
+        <v>576.8204565350671</v>
       </c>
       <c r="AB5" t="n">
-        <v>699.3920355773275</v>
+        <v>789.231196153826</v>
       </c>
       <c r="AC5" t="n">
-        <v>632.6430413047136</v>
+        <v>713.9080784858448</v>
       </c>
       <c r="AD5" t="n">
-        <v>511160.2724584573</v>
+        <v>576820.4565350672</v>
       </c>
       <c r="AE5" t="n">
-        <v>699392.0355773275</v>
+        <v>789231.196153826</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.466742093505709e-06</v>
+        <v>2.977993548998676e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.44097222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>632643.0413047136</v>
+        <v>713908.0784858449</v>
       </c>
     </row>
   </sheetData>
@@ -6741,28 +6741,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>461.5251751217064</v>
+        <v>521.7188535576468</v>
       </c>
       <c r="AB2" t="n">
-        <v>631.4791056552349</v>
+        <v>713.8387520489612</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.2116260979898</v>
+        <v>645.7109834323885</v>
       </c>
       <c r="AD2" t="n">
-        <v>461525.1751217064</v>
+        <v>521718.8535576467</v>
       </c>
       <c r="AE2" t="n">
-        <v>631479.1056552349</v>
+        <v>713838.7520489611</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.473459557120905e-06</v>
+        <v>3.281106631633159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36400462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>571211.6260979897</v>
+        <v>645710.9834323885</v>
       </c>
     </row>
     <row r="3">
@@ -6847,28 +6847,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.393820102392</v>
+        <v>494.5485564722032</v>
       </c>
       <c r="AB3" t="n">
-        <v>580.6743475980381</v>
+        <v>676.6631529077476</v>
       </c>
       <c r="AC3" t="n">
-        <v>525.2556028448461</v>
+        <v>612.0833712969313</v>
       </c>
       <c r="AD3" t="n">
-        <v>424393.820102392</v>
+        <v>494548.5564722032</v>
       </c>
       <c r="AE3" t="n">
-        <v>580674.3475980381</v>
+        <v>676663.1529077477</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.523829937673709e-06</v>
+        <v>3.393271630577972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.95601851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>525255.6028448461</v>
+        <v>612083.3712969313</v>
       </c>
     </row>
   </sheetData>
@@ -7144,28 +7144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1444.875673173889</v>
+        <v>1551.685494776195</v>
       </c>
       <c r="AB2" t="n">
-        <v>1976.94263945243</v>
+        <v>2123.08454948547</v>
       </c>
       <c r="AC2" t="n">
-        <v>1788.266008599511</v>
+        <v>1920.460339850456</v>
       </c>
       <c r="AD2" t="n">
-        <v>1444875.673173889</v>
+        <v>1551685.494776195</v>
       </c>
       <c r="AE2" t="n">
-        <v>1976942.63945243</v>
+        <v>2123084.54948547</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.469268787277302e-07</v>
+        <v>1.601338572278524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.39409722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1788266.008599511</v>
+        <v>1920460.339850456</v>
       </c>
     </row>
     <row r="3">
@@ -7250,28 +7250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>912.1065795721082</v>
+        <v>995.247191865251</v>
       </c>
       <c r="AB3" t="n">
-        <v>1247.984461472902</v>
+        <v>1361.741115117327</v>
       </c>
       <c r="AC3" t="n">
-        <v>1128.878576027121</v>
+        <v>1231.778454306187</v>
       </c>
       <c r="AD3" t="n">
-        <v>912106.5795721082</v>
+        <v>995247.1918652511</v>
       </c>
       <c r="AE3" t="n">
-        <v>1247984.461472902</v>
+        <v>1361741.115117327</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.133955943603606e-06</v>
+        <v>2.144042699984615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.73842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>1128878.57602712</v>
+        <v>1231778.454306187</v>
       </c>
     </row>
     <row r="4">
@@ -7356,28 +7356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>785.1888137876765</v>
+        <v>856.5375366077992</v>
       </c>
       <c r="AB4" t="n">
-        <v>1074.329975109989</v>
+        <v>1171.95244535598</v>
       </c>
       <c r="AC4" t="n">
-        <v>971.7974301170814</v>
+        <v>1060.102948816792</v>
       </c>
       <c r="AD4" t="n">
-        <v>785188.8137876765</v>
+        <v>856537.5366077992</v>
       </c>
       <c r="AE4" t="n">
-        <v>1074329.975109989</v>
+        <v>1171952.44535598</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243200357903578e-06</v>
+        <v>2.350598069542983e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5318287037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>971797.4301170814</v>
+        <v>1060102.948816792</v>
       </c>
     </row>
     <row r="5">
@@ -7462,28 +7462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>713.70472334321</v>
+        <v>796.6746539272095</v>
       </c>
       <c r="AB5" t="n">
-        <v>976.5222889083738</v>
+        <v>1090.045408308403</v>
       </c>
       <c r="AC5" t="n">
-        <v>883.3243722125983</v>
+        <v>986.0130044277877</v>
       </c>
       <c r="AD5" t="n">
-        <v>713704.7233432101</v>
+        <v>796674.6539272096</v>
       </c>
       <c r="AE5" t="n">
-        <v>976522.2889083738</v>
+        <v>1090045.408308403</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.302264489242696e-06</v>
+        <v>2.462274383197753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.96180555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>883324.3722125983</v>
+        <v>986013.0044277877</v>
       </c>
     </row>
     <row r="6">
@@ -7568,28 +7568,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>672.4359374374526</v>
+        <v>743.6993194030036</v>
       </c>
       <c r="AB6" t="n">
-        <v>920.0565153817774</v>
+        <v>1017.56221850557</v>
       </c>
       <c r="AC6" t="n">
-        <v>832.2476128611696</v>
+        <v>920.4475085289411</v>
       </c>
       <c r="AD6" t="n">
-        <v>672435.9374374526</v>
+        <v>743699.3194030037</v>
       </c>
       <c r="AE6" t="n">
-        <v>920056.5153817774</v>
+        <v>1017562.21850557</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.339792018452692e-06</v>
+        <v>2.533230072001195e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.62905092592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>832247.6128611696</v>
+        <v>920447.5085289411</v>
       </c>
     </row>
     <row r="7">
@@ -7674,28 +7674,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>640.5064893453347</v>
+        <v>711.5992791102937</v>
       </c>
       <c r="AB7" t="n">
-        <v>876.3692358743081</v>
+        <v>973.6415272232537</v>
       </c>
       <c r="AC7" t="n">
-        <v>792.729785994411</v>
+        <v>880.7185463795316</v>
       </c>
       <c r="AD7" t="n">
-        <v>640506.4893453347</v>
+        <v>711599.2791102936</v>
       </c>
       <c r="AE7" t="n">
-        <v>876369.235874308</v>
+        <v>973641.5272232536</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.363159231762789e-06</v>
+        <v>2.577411949964888e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.42939814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>792729.785994411</v>
+        <v>880718.5463795316</v>
       </c>
     </row>
     <row r="8">
@@ -7780,28 +7780,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>615.108404041581</v>
+        <v>686.2011938065399</v>
       </c>
       <c r="AB8" t="n">
-        <v>841.6184550772684</v>
+        <v>938.890746426214</v>
       </c>
       <c r="AC8" t="n">
-        <v>761.2955709436136</v>
+        <v>849.2843313287343</v>
       </c>
       <c r="AD8" t="n">
-        <v>615108.404041581</v>
+        <v>686201.1938065399</v>
       </c>
       <c r="AE8" t="n">
-        <v>841618.4550772684</v>
+        <v>938890.746426214</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.377857962715915e-06</v>
+        <v>2.60520377642592e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.30787037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>761295.5709436137</v>
+        <v>849284.3313287343</v>
       </c>
     </row>
     <row r="9">
@@ -7886,28 +7886,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>615.2538882279803</v>
+        <v>686.346677992939</v>
       </c>
       <c r="AB9" t="n">
-        <v>841.817512959409</v>
+        <v>939.0898043083547</v>
       </c>
       <c r="AC9" t="n">
-        <v>761.4756310208622</v>
+        <v>849.464391405983</v>
       </c>
       <c r="AD9" t="n">
-        <v>615253.8882279802</v>
+        <v>686346.677992939</v>
       </c>
       <c r="AE9" t="n">
-        <v>841817.512959409</v>
+        <v>939089.8043083547</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.378773268306403e-06</v>
+        <v>2.606934402982101e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.29918981481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>761475.6310208623</v>
+        <v>849464.3914059829</v>
       </c>
     </row>
   </sheetData>
@@ -8183,28 +8183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>412.018777820594</v>
+        <v>470.7310603833661</v>
       </c>
       <c r="AB2" t="n">
-        <v>563.7422687997478</v>
+        <v>644.0750040052317</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.9394978827428</v>
+        <v>582.6053895879172</v>
       </c>
       <c r="AD2" t="n">
-        <v>412018.777820594</v>
+        <v>470731.0603833661</v>
       </c>
       <c r="AE2" t="n">
-        <v>563742.2687997478</v>
+        <v>644075.0040052317</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.5204121264299e-06</v>
+        <v>3.485646284589412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.26273148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>509939.4978827428</v>
+        <v>582605.3895879172</v>
       </c>
     </row>
     <row r="3">
@@ -8289,28 +8289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.8815234059231</v>
+        <v>474.5938059686952</v>
       </c>
       <c r="AB3" t="n">
-        <v>569.0274477219032</v>
+        <v>649.3601829273873</v>
       </c>
       <c r="AC3" t="n">
-        <v>514.7202667463629</v>
+        <v>587.3861584515375</v>
       </c>
       <c r="AD3" t="n">
-        <v>415881.5234059231</v>
+        <v>474593.8059686952</v>
       </c>
       <c r="AE3" t="n">
-        <v>569027.4477219032</v>
+        <v>649360.1829273873</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.520283256102181e-06</v>
+        <v>3.485350840761255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.26273148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>514720.2667463629</v>
+        <v>587386.1584515375</v>
       </c>
     </row>
   </sheetData>
@@ -8586,28 +8586,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1067.078476754302</v>
+        <v>1158.155550741537</v>
       </c>
       <c r="AB2" t="n">
-        <v>1460.02384807516</v>
+        <v>1584.639518741421</v>
       </c>
       <c r="AC2" t="n">
-        <v>1320.681221171207</v>
+        <v>1433.403747128272</v>
       </c>
       <c r="AD2" t="n">
-        <v>1067078.476754302</v>
+        <v>1158155.550741537</v>
       </c>
       <c r="AE2" t="n">
-        <v>1460023.848075161</v>
+        <v>1584639.518741421</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.003710412120334e-06</v>
+        <v>1.967258536544022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.13715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1320681.221171207</v>
+        <v>1433403.747128272</v>
       </c>
     </row>
     <row r="3">
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>727.1280812478205</v>
+        <v>806.8097750598479</v>
       </c>
       <c r="AB3" t="n">
-        <v>994.8887193902175</v>
+        <v>1103.912728172066</v>
       </c>
       <c r="AC3" t="n">
-        <v>899.937936346702</v>
+        <v>998.5568467465683</v>
       </c>
       <c r="AD3" t="n">
-        <v>727128.0812478205</v>
+        <v>806809.7750598479</v>
       </c>
       <c r="AE3" t="n">
-        <v>994888.7193902174</v>
+        <v>1103912.728172066</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262768567677353e-06</v>
+        <v>2.47500894126912e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.82696759259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>899937.936346702</v>
+        <v>998556.8467465683</v>
       </c>
     </row>
     <row r="4">
@@ -8798,28 +8798,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>631.0626930094516</v>
+        <v>710.6590459669073</v>
       </c>
       <c r="AB4" t="n">
-        <v>863.4478170966627</v>
+        <v>972.3550587563136</v>
       </c>
       <c r="AC4" t="n">
-        <v>781.041569289579</v>
+        <v>879.5548566575064</v>
       </c>
       <c r="AD4" t="n">
-        <v>631062.6930094515</v>
+        <v>710659.0459669073</v>
       </c>
       <c r="AE4" t="n">
-        <v>863447.8170966627</v>
+        <v>972355.0587563136</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.358040171125505e-06</v>
+        <v>2.661739967380209e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>781041.5692895791</v>
+        <v>879554.8566575064</v>
       </c>
     </row>
     <row r="5">
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>579.4845965794216</v>
+        <v>647.6857483787712</v>
       </c>
       <c r="AB5" t="n">
-        <v>792.8763900960754</v>
+        <v>886.1922148104111</v>
       </c>
       <c r="AC5" t="n">
-        <v>717.2053802343079</v>
+        <v>801.6152736074898</v>
       </c>
       <c r="AD5" t="n">
-        <v>579484.5965794215</v>
+        <v>647685.7483787712</v>
       </c>
       <c r="AE5" t="n">
-        <v>792876.3900960754</v>
+        <v>886192.2148104111</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.409258453825304e-06</v>
+        <v>2.76212709363852e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.49305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>717205.3802343078</v>
+        <v>801615.2736074898</v>
       </c>
     </row>
     <row r="6">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>555.4331673321179</v>
+        <v>623.6343191314676</v>
       </c>
       <c r="AB6" t="n">
-        <v>759.968163525743</v>
+        <v>853.2839882400785</v>
       </c>
       <c r="AC6" t="n">
-        <v>687.4378686208618</v>
+        <v>771.8477619940439</v>
       </c>
       <c r="AD6" t="n">
-        <v>555433.1673321179</v>
+        <v>623634.3191314676</v>
       </c>
       <c r="AE6" t="n">
-        <v>759968.1635257429</v>
+        <v>853283.9882400786</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.42655511978622e-06</v>
+        <v>2.79602831988313e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>687437.8686208618</v>
+        <v>771847.7619940439</v>
       </c>
     </row>
     <row r="7">
@@ -9116,28 +9116,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>555.5802642973114</v>
+        <v>623.7814160966611</v>
       </c>
       <c r="AB7" t="n">
-        <v>760.1694280829806</v>
+        <v>853.4852527973164</v>
       </c>
       <c r="AC7" t="n">
-        <v>687.6199247712335</v>
+        <v>772.0298181444155</v>
       </c>
       <c r="AD7" t="n">
-        <v>555580.2642973114</v>
+        <v>623781.4160966611</v>
       </c>
       <c r="AE7" t="n">
-        <v>760169.4280829807</v>
+        <v>853485.2527973164</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.429857719435715e-06</v>
+        <v>2.802501369554431e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>687619.9247712335</v>
+        <v>772029.8181444155</v>
       </c>
     </row>
   </sheetData>
@@ -9413,28 +9413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1245.541331363257</v>
+        <v>1350.183634556706</v>
       </c>
       <c r="AB2" t="n">
-        <v>1704.204598976613</v>
+        <v>1847.380814698491</v>
       </c>
       <c r="AC2" t="n">
-        <v>1541.557703916462</v>
+        <v>1671.069382558924</v>
       </c>
       <c r="AD2" t="n">
-        <v>1245541.331363257</v>
+        <v>1350183.634556706</v>
       </c>
       <c r="AE2" t="n">
-        <v>1704204.598976613</v>
+        <v>1847380.814698491</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.217897946575447e-07</v>
+        <v>1.77232807844167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.21643518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>1541557.703916462</v>
+        <v>1671069.382558924</v>
       </c>
     </row>
     <row r="3">
@@ -9519,28 +9519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>826.0097777479683</v>
+        <v>907.3603264094082</v>
       </c>
       <c r="AB3" t="n">
-        <v>1130.18301889429</v>
+        <v>1241.490428505785</v>
       </c>
       <c r="AC3" t="n">
-        <v>1022.319937792848</v>
+        <v>1123.004324451952</v>
       </c>
       <c r="AD3" t="n">
-        <v>826009.7777479683</v>
+        <v>907360.3264094082</v>
       </c>
       <c r="AE3" t="n">
-        <v>1130183.01889429</v>
+        <v>1241490.428505785</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.193823910293971e-06</v>
+        <v>2.295368910777642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.29282407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>1022319.937792848</v>
+        <v>1123004.324451952</v>
       </c>
     </row>
     <row r="4">
@@ -9625,28 +9625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>714.9423063240672</v>
+        <v>784.7323185740742</v>
       </c>
       <c r="AB4" t="n">
-        <v>978.2156045410903</v>
+        <v>1073.705378219591</v>
       </c>
       <c r="AC4" t="n">
-        <v>884.8560801779117</v>
+        <v>971.2324438772755</v>
       </c>
       <c r="AD4" t="n">
-        <v>714942.3063240672</v>
+        <v>784732.3185740742</v>
       </c>
       <c r="AE4" t="n">
-        <v>978215.6045410903</v>
+        <v>1073705.378219591</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297536916880359e-06</v>
+        <v>2.494778228105731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.23090277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>884856.0801779118</v>
+        <v>971232.4438772755</v>
       </c>
     </row>
     <row r="5">
@@ -9731,28 +9731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>647.7460022547453</v>
+        <v>717.6212658507727</v>
       </c>
       <c r="AB5" t="n">
-        <v>886.274656821732</v>
+        <v>981.881075152882</v>
       </c>
       <c r="AC5" t="n">
-        <v>801.6898474689583</v>
+        <v>888.1717234190344</v>
       </c>
       <c r="AD5" t="n">
-        <v>647746.0022547453</v>
+        <v>717621.2658507727</v>
       </c>
       <c r="AE5" t="n">
-        <v>886274.6568217321</v>
+        <v>981881.075152882</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.353479416466882e-06</v>
+        <v>2.602339044432887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.72453703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>801689.8474689584</v>
+        <v>888171.7234190344</v>
       </c>
     </row>
     <row r="6">
@@ -9837,28 +9837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>614.550320178892</v>
+        <v>684.4255837749196</v>
       </c>
       <c r="AB6" t="n">
-        <v>840.854860115415</v>
+        <v>936.4612784465652</v>
       </c>
       <c r="AC6" t="n">
-        <v>760.6048524132073</v>
+        <v>847.0867283632832</v>
       </c>
       <c r="AD6" t="n">
-        <v>614550.320178892</v>
+        <v>684425.5837749196</v>
       </c>
       <c r="AE6" t="n">
-        <v>840854.8601154151</v>
+        <v>936461.2784465651</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.379147151571287e-06</v>
+        <v>2.651690477806523e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.50752314814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>760604.8524132073</v>
+        <v>847086.7283632832</v>
       </c>
     </row>
     <row r="7">
@@ -9943,28 +9943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>584.8215099157686</v>
+        <v>654.5261813112038</v>
       </c>
       <c r="AB7" t="n">
-        <v>800.1785903708646</v>
+        <v>895.5515969271675</v>
       </c>
       <c r="AC7" t="n">
-        <v>723.8106687635735</v>
+        <v>810.0814094309985</v>
       </c>
       <c r="AD7" t="n">
-        <v>584821.5099157686</v>
+        <v>654526.1813112037</v>
       </c>
       <c r="AE7" t="n">
-        <v>800178.5903708646</v>
+        <v>895551.5969271675</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402291989635515e-06</v>
+        <v>2.696191129267366e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.31655092592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>723810.6687635735</v>
+        <v>810081.4094309985</v>
       </c>
     </row>
     <row r="8">
@@ -10049,28 +10049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>585.379397246395</v>
+        <v>655.0840686418303</v>
       </c>
       <c r="AB8" t="n">
-        <v>800.9419164288797</v>
+        <v>896.3149229851829</v>
       </c>
       <c r="AC8" t="n">
-        <v>724.5011440539466</v>
+        <v>810.7718847213716</v>
       </c>
       <c r="AD8" t="n">
-        <v>585379.397246395</v>
+        <v>655084.0686418304</v>
       </c>
       <c r="AE8" t="n">
-        <v>800941.9164288797</v>
+        <v>896314.9229851828</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.403992202858243e-06</v>
+        <v>2.699460134469466e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.30208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>724501.1440539466</v>
+        <v>810771.8847213716</v>
       </c>
     </row>
   </sheetData>
@@ -10346,28 +10346,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1668.562517811097</v>
+        <v>1789.491072204793</v>
       </c>
       <c r="AB2" t="n">
-        <v>2283.00084865217</v>
+        <v>2448.460631764919</v>
       </c>
       <c r="AC2" t="n">
-        <v>2065.114451868621</v>
+        <v>2214.782985505354</v>
       </c>
       <c r="AD2" t="n">
-        <v>1668562.517811097</v>
+        <v>1789491.072204793</v>
       </c>
       <c r="AE2" t="n">
-        <v>2283000.84865217</v>
+        <v>2448460.631764919</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.785095784190204e-07</v>
+        <v>1.450304297426878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.67592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>2065114.451868621</v>
+        <v>2214782.985505354</v>
       </c>
     </row>
     <row r="3">
@@ -10452,28 +10452,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1015.143016496734</v>
+        <v>1099.7077532263</v>
       </c>
       <c r="AB3" t="n">
-        <v>1388.963460119957</v>
+        <v>1504.668663646232</v>
       </c>
       <c r="AC3" t="n">
-        <v>1256.402736908567</v>
+        <v>1361.065198203568</v>
       </c>
       <c r="AD3" t="n">
-        <v>1015143.016496734</v>
+        <v>1099707.7532263</v>
       </c>
       <c r="AE3" t="n">
-        <v>1388963.460119957</v>
+        <v>1504668.663646232</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.077345874500577e-06</v>
+        <v>2.007013651362329e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1256402.736908567</v>
+        <v>1361065.198203568</v>
       </c>
     </row>
     <row r="4">
@@ -10558,28 +10558,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>856.6216267940929</v>
+        <v>941.1862740151082</v>
       </c>
       <c r="AB4" t="n">
-        <v>1172.067501258664</v>
+        <v>1287.772582315391</v>
       </c>
       <c r="AC4" t="n">
-        <v>1060.207023945606</v>
+        <v>1164.86937445938</v>
       </c>
       <c r="AD4" t="n">
-        <v>856621.6267940929</v>
+        <v>941186.2740151082</v>
       </c>
       <c r="AE4" t="n">
-        <v>1172067.501258664</v>
+        <v>1287772.582315391</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.191851261289666e-06</v>
+        <v>2.220328502126257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.85300925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>1060207.023945606</v>
+        <v>1164869.37445938</v>
       </c>
     </row>
     <row r="5">
@@ -10664,28 +10664,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>790.9978716221259</v>
+        <v>863.4697529123225</v>
       </c>
       <c r="AB5" t="n">
-        <v>1082.278184316628</v>
+        <v>1181.437409531628</v>
       </c>
       <c r="AC5" t="n">
-        <v>978.9870733924196</v>
+        <v>1068.682681323747</v>
       </c>
       <c r="AD5" t="n">
-        <v>790997.8716221259</v>
+        <v>863469.7529123225</v>
       </c>
       <c r="AE5" t="n">
-        <v>1082278.184316628</v>
+        <v>1181437.409531628</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.253683111391217e-06</v>
+        <v>2.335516549140713e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.2193287037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>978987.0733924196</v>
+        <v>1068682.681323747</v>
       </c>
     </row>
     <row r="6">
@@ -10770,28 +10770,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>733.9731112447603</v>
+        <v>806.5302438809774</v>
       </c>
       <c r="AB6" t="n">
-        <v>1004.254391413441</v>
+        <v>1103.53026128109</v>
       </c>
       <c r="AC6" t="n">
-        <v>908.4097617768323</v>
+        <v>998.2108819588716</v>
       </c>
       <c r="AD6" t="n">
-        <v>733973.1112447602</v>
+        <v>806530.2438809774</v>
       </c>
       <c r="AE6" t="n">
-        <v>1004254.391413441</v>
+        <v>1103530.26128109</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.294869052640367e-06</v>
+        <v>2.412242833881507e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.8287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>908409.7617768323</v>
+        <v>998210.8819588716</v>
       </c>
     </row>
     <row r="7">
@@ -10876,28 +10876,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>706.7698448526839</v>
+        <v>779.3269774889012</v>
       </c>
       <c r="AB7" t="n">
-        <v>967.0336822123895</v>
+        <v>1066.309552080039</v>
       </c>
       <c r="AC7" t="n">
-        <v>874.7413448223357</v>
+        <v>964.5424650043752</v>
       </c>
       <c r="AD7" t="n">
-        <v>706769.8448526839</v>
+        <v>779326.9774889012</v>
       </c>
       <c r="AE7" t="n">
-        <v>967033.6822123895</v>
+        <v>1066309.552080039</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.315991405543209e-06</v>
+        <v>2.451592175284562e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>874741.3448223356</v>
+        <v>964542.4650043752</v>
       </c>
     </row>
     <row r="8">
@@ -10982,28 +10982,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>675.1221685078337</v>
+        <v>747.5087089434587</v>
       </c>
       <c r="AB8" t="n">
-        <v>923.7319352404238</v>
+        <v>1022.774393333226</v>
       </c>
       <c r="AC8" t="n">
-        <v>835.5722558069909</v>
+        <v>925.1622407063793</v>
       </c>
       <c r="AD8" t="n">
-        <v>675122.1685078337</v>
+        <v>747508.7089434587</v>
       </c>
       <c r="AE8" t="n">
-        <v>923731.9352404238</v>
+        <v>1022774.393333226</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.338807781736504e-06</v>
+        <v>2.494097353592123e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.44097222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>835572.2558069909</v>
+        <v>925162.2407063793</v>
       </c>
     </row>
     <row r="9">
@@ -11088,28 +11088,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>648.5226041320268</v>
+        <v>720.9091445676519</v>
       </c>
       <c r="AB9" t="n">
-        <v>887.3372377714853</v>
+        <v>986.3796958642878</v>
       </c>
       <c r="AC9" t="n">
-        <v>802.651017184209</v>
+        <v>892.2410020835973</v>
       </c>
       <c r="AD9" t="n">
-        <v>648522.6041320268</v>
+        <v>720909.1445676519</v>
       </c>
       <c r="AE9" t="n">
-        <v>887337.2377714854</v>
+        <v>986379.6958642878</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.354953941223638e-06</v>
+        <v>2.524176424088192e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.30497685185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>802651.017184209</v>
+        <v>892241.0020835974</v>
       </c>
     </row>
     <row r="10">
@@ -11194,28 +11194,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>641.2327289736303</v>
+        <v>713.6192694092553</v>
       </c>
       <c r="AB10" t="n">
-        <v>877.3629089731729</v>
+        <v>976.4053670659753</v>
       </c>
       <c r="AC10" t="n">
-        <v>793.6286243273493</v>
+        <v>883.2186092267375</v>
       </c>
       <c r="AD10" t="n">
-        <v>641232.7289736302</v>
+        <v>713619.2694092552</v>
       </c>
       <c r="AE10" t="n">
-        <v>877362.9089731729</v>
+        <v>976405.3670659753</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.359083122994119e-06</v>
+        <v>2.531868776542924e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.27025462962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>793628.6243273492</v>
+        <v>883218.6092267375</v>
       </c>
     </row>
     <row r="11">
@@ -11300,28 +11300,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>643.7952355935771</v>
+        <v>716.1817760292022</v>
       </c>
       <c r="AB11" t="n">
-        <v>880.8690435803978</v>
+        <v>979.9115016732002</v>
       </c>
       <c r="AC11" t="n">
-        <v>796.8001383685514</v>
+        <v>886.3901232679397</v>
       </c>
       <c r="AD11" t="n">
-        <v>643795.2355935771</v>
+        <v>716181.7760292022</v>
       </c>
       <c r="AE11" t="n">
-        <v>880869.0435803978</v>
+        <v>979911.5016732002</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.359083122994119e-06</v>
+        <v>2.531868776542924e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.27025462962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>796800.1383685514</v>
+        <v>886390.1232679397</v>
       </c>
     </row>
   </sheetData>
@@ -11597,28 +11597,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>903.2552190273902</v>
+        <v>981.0986929597046</v>
       </c>
       <c r="AB2" t="n">
-        <v>1235.873639481152</v>
+        <v>1342.38251472704</v>
       </c>
       <c r="AC2" t="n">
-        <v>1117.923593888617</v>
+        <v>1214.267411567183</v>
       </c>
       <c r="AD2" t="n">
-        <v>903255.2190273902</v>
+        <v>981098.6929597047</v>
       </c>
       <c r="AE2" t="n">
-        <v>1235873.639481152</v>
+        <v>1342382.514727039</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.095881823063804e-06</v>
+        <v>2.196692215684917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.12152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1117923.593888617</v>
+        <v>1214267.411567183</v>
       </c>
     </row>
     <row r="3">
@@ -11703,28 +11703,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>643.1027099224439</v>
+        <v>709.7403595110774</v>
       </c>
       <c r="AB3" t="n">
-        <v>879.9214994050767</v>
+        <v>971.0980714178613</v>
       </c>
       <c r="AC3" t="n">
-        <v>795.9430264794364</v>
+        <v>878.4178344264432</v>
       </c>
       <c r="AD3" t="n">
-        <v>643102.7099224438</v>
+        <v>709740.3595110774</v>
       </c>
       <c r="AE3" t="n">
-        <v>879921.4994050767</v>
+        <v>971098.0714178613</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336076668422027e-06</v>
+        <v>2.678162147881548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.40451388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>795943.0264794364</v>
+        <v>878417.8344264432</v>
       </c>
     </row>
     <row r="4">
@@ -11809,28 +11809,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>556.6575523472924</v>
+        <v>623.3804532819468</v>
       </c>
       <c r="AB4" t="n">
-        <v>761.6434211195592</v>
+        <v>852.9366377849933</v>
       </c>
       <c r="AC4" t="n">
-        <v>688.9532419811634</v>
+        <v>771.5335621788824</v>
       </c>
       <c r="AD4" t="n">
-        <v>556657.5523472924</v>
+        <v>623380.4532819467</v>
       </c>
       <c r="AE4" t="n">
-        <v>761643.4211195592</v>
+        <v>852936.6377849933</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.424846818709401e-06</v>
+        <v>2.856101679332377e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.63194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>688953.2419811634</v>
+        <v>771533.5621788824</v>
       </c>
     </row>
     <row r="5">
@@ -11915,28 +11915,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>525.4191284265191</v>
+        <v>591.9714371605811</v>
       </c>
       <c r="AB5" t="n">
-        <v>718.9016313691582</v>
+        <v>809.9614362597451</v>
       </c>
       <c r="AC5" t="n">
-        <v>650.2906686560617</v>
+        <v>732.6598535711298</v>
       </c>
       <c r="AD5" t="n">
-        <v>525419.1284265191</v>
+        <v>591971.4371605811</v>
       </c>
       <c r="AE5" t="n">
-        <v>718901.6313691582</v>
+        <v>809961.4362597452</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.453024182542555e-06</v>
+        <v>2.912583130605802e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.40335648148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>650290.6686560618</v>
+        <v>732659.8535711298</v>
       </c>
     </row>
     <row r="6">
@@ -12021,28 +12021,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>527.6508903322764</v>
+        <v>594.2031990663384</v>
       </c>
       <c r="AB6" t="n">
-        <v>721.9552264670018</v>
+        <v>813.0150313575887</v>
       </c>
       <c r="AC6" t="n">
-        <v>653.0528329235148</v>
+        <v>735.4220178385827</v>
       </c>
       <c r="AD6" t="n">
-        <v>527650.8903322764</v>
+        <v>594203.1990663384</v>
       </c>
       <c r="AE6" t="n">
-        <v>721955.2264670018</v>
+        <v>813015.0313575887</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.453711435318973e-06</v>
+        <v>2.913960726978324e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.40046296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>653052.8329235148</v>
+        <v>735422.0178385827</v>
       </c>
     </row>
   </sheetData>
@@ -12318,28 +12318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>674.7585257227645</v>
+        <v>749.2752687708688</v>
       </c>
       <c r="AB2" t="n">
-        <v>923.2343831391046</v>
+        <v>1025.191478424208</v>
       </c>
       <c r="AC2" t="n">
-        <v>835.1221893799026</v>
+        <v>927.3486425886775</v>
       </c>
       <c r="AD2" t="n">
-        <v>674758.5257227644</v>
+        <v>749275.2687708688</v>
       </c>
       <c r="AE2" t="n">
-        <v>923234.3831391046</v>
+        <v>1025191.478424208</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.257579357735408e-06</v>
+        <v>2.630934662775888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.72685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>835122.1893799026</v>
+        <v>927348.6425886776</v>
       </c>
     </row>
     <row r="3">
@@ -12424,28 +12424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>500.5631962318347</v>
+        <v>564.434690273067</v>
       </c>
       <c r="AB3" t="n">
-        <v>684.8926483740546</v>
+        <v>772.2844443327145</v>
       </c>
       <c r="AC3" t="n">
-        <v>619.5274552661033</v>
+        <v>698.5787008736247</v>
       </c>
       <c r="AD3" t="n">
-        <v>500563.1962318347</v>
+        <v>564434.690273067</v>
       </c>
       <c r="AE3" t="n">
-        <v>684892.6483740546</v>
+        <v>772284.4443327145</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464829390409639e-06</v>
+        <v>3.064514692115709e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.78530092592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>619527.4552661033</v>
+        <v>698578.7008736248</v>
       </c>
     </row>
     <row r="4">
@@ -12530,28 +12530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>478.4860228035886</v>
+        <v>542.3575168448209</v>
       </c>
       <c r="AB4" t="n">
-        <v>654.6856857133765</v>
+        <v>742.0774816720364</v>
       </c>
       <c r="AC4" t="n">
-        <v>592.2034027260219</v>
+        <v>671.2546483335433</v>
       </c>
       <c r="AD4" t="n">
-        <v>478486.0228035887</v>
+        <v>542357.5168448209</v>
       </c>
       <c r="AE4" t="n">
-        <v>654685.6857133765</v>
+        <v>742077.4816720363</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.492331481677003e-06</v>
+        <v>3.122050786970533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.56828703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>592203.4027260218</v>
+        <v>671254.6483335433</v>
       </c>
     </row>
   </sheetData>
@@ -22464,28 +22464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>531.52563600955</v>
+        <v>603.2979915752363</v>
       </c>
       <c r="AB2" t="n">
-        <v>727.2568244443623</v>
+        <v>825.4589277021905</v>
       </c>
       <c r="AC2" t="n">
-        <v>657.8484538307556</v>
+        <v>746.6782861811741</v>
       </c>
       <c r="AD2" t="n">
-        <v>531525.63600955</v>
+        <v>603297.9915752363</v>
       </c>
       <c r="AE2" t="n">
-        <v>727256.8244443623</v>
+        <v>825458.9277021905</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.390947067479643e-06</v>
+        <v>3.023718308206051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>657848.4538307555</v>
+        <v>746678.2861811741</v>
       </c>
     </row>
     <row r="3">
@@ -22570,28 +22570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.2088948319107</v>
+        <v>504.8012060492746</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.41796290548</v>
+        <v>690.6912803740735</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.5422836387365</v>
+        <v>624.7726739664715</v>
       </c>
       <c r="AD3" t="n">
-        <v>443208.8948319107</v>
+        <v>504801.2060492747</v>
       </c>
       <c r="AE3" t="n">
-        <v>606417.9629054799</v>
+        <v>690691.2803740734</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.515236849364554e-06</v>
+        <v>3.29390636769081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.78530092592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>548542.2836387366</v>
+        <v>624772.6739664716</v>
       </c>
     </row>
   </sheetData>
@@ -22867,28 +22867,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>388.8340973866937</v>
+        <v>455.335397919406</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.0199661941728</v>
+        <v>623.00997941335</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.2447273153124</v>
+        <v>563.550781378137</v>
       </c>
       <c r="AD2" t="n">
-        <v>388834.0973866936</v>
+        <v>455335.397919406</v>
       </c>
       <c r="AE2" t="n">
-        <v>532019.9661941727</v>
+        <v>623009.97941335</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501455057250141e-06</v>
+        <v>3.571251338187529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.7662037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>481244.7273153124</v>
+        <v>563550.7813781369</v>
       </c>
     </row>
   </sheetData>
@@ -23164,28 +23164,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1147.158145878223</v>
+        <v>1250.782111734033</v>
       </c>
       <c r="AB2" t="n">
-        <v>1569.592384236174</v>
+        <v>1711.375265886822</v>
       </c>
       <c r="AC2" t="n">
-        <v>1419.79269002142</v>
+        <v>1548.044012440854</v>
       </c>
       <c r="AD2" t="n">
-        <v>1147158.145878223</v>
+        <v>1250782.111734033</v>
       </c>
       <c r="AE2" t="n">
-        <v>1569592.384236174</v>
+        <v>1711375.265886822</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.623444054668682e-07</v>
+        <v>1.867504569318051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.65509259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>1419792.69002142</v>
+        <v>1548044.012440854</v>
       </c>
     </row>
     <row r="3">
@@ -23270,28 +23270,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>782.9165502466702</v>
+        <v>852.0561775621429</v>
       </c>
       <c r="AB3" t="n">
-        <v>1071.220963887992</v>
+        <v>1165.820852206105</v>
       </c>
       <c r="AC3" t="n">
-        <v>968.9851385625871</v>
+        <v>1054.556546311396</v>
       </c>
       <c r="AD3" t="n">
-        <v>782916.5502466703</v>
+        <v>852056.177562143</v>
       </c>
       <c r="AE3" t="n">
-        <v>1071220.963887992</v>
+        <v>1165820.852206105</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.226624907307795e-06</v>
+        <v>2.380361548551137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.06712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>968985.1385625871</v>
+        <v>1054556.546311396</v>
       </c>
     </row>
     <row r="4">
@@ -23376,28 +23376,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>679.3568594482225</v>
+        <v>748.4111459091234</v>
       </c>
       <c r="AB4" t="n">
-        <v>929.526026206443</v>
+        <v>1024.009147402358</v>
       </c>
       <c r="AC4" t="n">
-        <v>840.8133668632709</v>
+        <v>926.2791515801409</v>
       </c>
       <c r="AD4" t="n">
-        <v>679356.8594482226</v>
+        <v>748411.1459091235</v>
       </c>
       <c r="AE4" t="n">
-        <v>929526.026206443</v>
+        <v>1024009.147402358</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.326277102405642e-06</v>
+        <v>2.573744425440746e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.08622685185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>840813.3668632709</v>
+        <v>926279.1515801409</v>
       </c>
     </row>
     <row r="5">
@@ -23482,28 +23482,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>614.1170322988735</v>
+        <v>683.256570105795</v>
       </c>
       <c r="AB5" t="n">
-        <v>840.2620165226615</v>
+        <v>934.8617823712256</v>
       </c>
       <c r="AC5" t="n">
-        <v>760.068588980885</v>
+        <v>845.6398859484673</v>
       </c>
       <c r="AD5" t="n">
-        <v>614117.0322988735</v>
+        <v>683256.5701057951</v>
       </c>
       <c r="AE5" t="n">
-        <v>840262.0165226615</v>
+        <v>934861.7823712255</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.380673131080509e-06</v>
+        <v>2.679304172581155e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.6087962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>760068.588980885</v>
+        <v>845639.8859484673</v>
       </c>
     </row>
     <row r="6">
@@ -23588,28 +23588,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>576.7930488300732</v>
+        <v>645.7619944364023</v>
       </c>
       <c r="AB6" t="n">
-        <v>789.1936957227106</v>
+        <v>883.5600497964278</v>
       </c>
       <c r="AC6" t="n">
-        <v>713.8741570432428</v>
+        <v>799.2343187281743</v>
       </c>
       <c r="AD6" t="n">
-        <v>576793.0488300732</v>
+        <v>645761.9944364023</v>
       </c>
       <c r="AE6" t="n">
-        <v>789193.6957227106</v>
+        <v>883560.0497964278</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410086869600218e-06</v>
+        <v>2.736383832185592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.36574074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>713874.1570432428</v>
+        <v>799234.3187281743</v>
       </c>
     </row>
     <row r="7">
@@ -23694,28 +23694,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>569.7529094015915</v>
+        <v>638.7218550079208</v>
       </c>
       <c r="AB7" t="n">
-        <v>779.5610663676308</v>
+        <v>873.9274204413479</v>
       </c>
       <c r="AC7" t="n">
-        <v>705.1608523143318</v>
+        <v>790.521013999263</v>
       </c>
       <c r="AD7" t="n">
-        <v>569752.9094015915</v>
+        <v>638721.8550079208</v>
       </c>
       <c r="AE7" t="n">
-        <v>779561.0663676308</v>
+        <v>873927.4204413479</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416457076624261e-06</v>
+        <v>2.748745717034011e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.31655092592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>705160.8523143318</v>
+        <v>790521.0139992631</v>
       </c>
     </row>
   </sheetData>
@@ -23991,28 +23991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1559.057611345291</v>
+        <v>1666.939177190962</v>
       </c>
       <c r="AB2" t="n">
-        <v>2133.171404610137</v>
+        <v>2280.779722398967</v>
       </c>
       <c r="AC2" t="n">
-        <v>1929.584519679015</v>
+        <v>2063.105306787655</v>
       </c>
       <c r="AD2" t="n">
-        <v>1559057.611345291</v>
+        <v>1666939.177190962</v>
       </c>
       <c r="AE2" t="n">
-        <v>2133171.404610137</v>
+        <v>2280779.722398967</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.121547638148554e-07</v>
+        <v>1.523920887765925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.01620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>1929584.519679015</v>
+        <v>2063105.306787655</v>
       </c>
     </row>
     <row r="3">
@@ -24097,28 +24097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>957.7874733762301</v>
+        <v>1053.511437300082</v>
       </c>
       <c r="AB3" t="n">
-        <v>1310.487075674504</v>
+        <v>1441.460826158359</v>
       </c>
       <c r="AC3" t="n">
-        <v>1185.416028452291</v>
+        <v>1303.889828012781</v>
       </c>
       <c r="AD3" t="n">
-        <v>957787.4733762301</v>
+        <v>1053511.437300083</v>
       </c>
       <c r="AE3" t="n">
-        <v>1310487.075674504</v>
+        <v>1441460.826158359</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.10445574880665e-06</v>
+        <v>2.072392184604978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1185416.028452291</v>
+        <v>1303889.828012781</v>
       </c>
     </row>
     <row r="4">
@@ -24203,28 +24203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>820.6154954885528</v>
+        <v>904.4379695628528</v>
       </c>
       <c r="AB4" t="n">
-        <v>1122.80232392802</v>
+        <v>1237.491930943042</v>
       </c>
       <c r="AC4" t="n">
-        <v>1015.643645995288</v>
+        <v>1119.387437884671</v>
       </c>
       <c r="AD4" t="n">
-        <v>820615.4954885528</v>
+        <v>904437.9695628528</v>
       </c>
       <c r="AE4" t="n">
-        <v>1122802.32392802</v>
+        <v>1237491.930943042</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.217191263836355e-06</v>
+        <v>2.283928228966571e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.6880787037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1015643.645995288</v>
+        <v>1119387.437884671</v>
       </c>
     </row>
     <row r="5">
@@ -24309,28 +24309,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>757.5368023774037</v>
+        <v>829.3725352561302</v>
       </c>
       <c r="AB5" t="n">
-        <v>1036.495273177809</v>
+        <v>1134.784092071348</v>
       </c>
       <c r="AC5" t="n">
-        <v>937.5736190359704</v>
+        <v>1026.481891003534</v>
       </c>
       <c r="AD5" t="n">
-        <v>757536.8023774037</v>
+        <v>829372.5352561302</v>
       </c>
       <c r="AE5" t="n">
-        <v>1036495.273177809</v>
+        <v>1134784.092071348</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.278309713035699e-06</v>
+        <v>2.398610412107681e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>937573.6190359704</v>
+        <v>1026481.891003534</v>
       </c>
     </row>
     <row r="6">
@@ -24415,28 +24415,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>703.0820107746844</v>
+        <v>775.0029949994313</v>
       </c>
       <c r="AB6" t="n">
-        <v>961.9878249311137</v>
+        <v>1060.393288477302</v>
       </c>
       <c r="AC6" t="n">
-        <v>870.1770570780795</v>
+        <v>959.1908412963553</v>
       </c>
       <c r="AD6" t="n">
-        <v>703082.0107746844</v>
+        <v>775002.9949994313</v>
       </c>
       <c r="AE6" t="n">
-        <v>961987.8249311136</v>
+        <v>1060393.288477302</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.316902410652402e-06</v>
+        <v>2.471025450021237e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.72743055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>870177.0570780796</v>
+        <v>959190.8412963554</v>
       </c>
     </row>
     <row r="7">
@@ -24521,28 +24521,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>672.5067715212474</v>
+        <v>744.4277557459944</v>
       </c>
       <c r="AB7" t="n">
-        <v>920.1534337002049</v>
+        <v>1018.558897246393</v>
       </c>
       <c r="AC7" t="n">
-        <v>832.3352814313118</v>
+        <v>921.3490656495876</v>
       </c>
       <c r="AD7" t="n">
-        <v>672506.7715212475</v>
+        <v>744427.7557459944</v>
       </c>
       <c r="AE7" t="n">
-        <v>920153.4337002049</v>
+        <v>1018558.897246393</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.340442354841843e-06</v>
+        <v>2.51519561837515e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.52199074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>832335.2814313119</v>
+        <v>921349.0656495875</v>
       </c>
     </row>
     <row r="8">
@@ -24627,28 +24627,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>641.4035516591986</v>
+        <v>713.1539436833533</v>
       </c>
       <c r="AB8" t="n">
-        <v>877.5966361077328</v>
+        <v>975.7686878790742</v>
       </c>
       <c r="AC8" t="n">
-        <v>793.8400448722246</v>
+        <v>882.6426938078492</v>
       </c>
       <c r="AD8" t="n">
-        <v>641403.5516591986</v>
+        <v>713153.9436833533</v>
       </c>
       <c r="AE8" t="n">
-        <v>877596.6361077328</v>
+        <v>975768.6878790741</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.360886342652628e-06</v>
+        <v>2.553556558238071e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.34837962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>793840.0448722246</v>
+        <v>882642.6938078492</v>
       </c>
     </row>
     <row r="9">
@@ -24733,28 +24733,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>628.0020474112306</v>
+        <v>699.7524394353852</v>
       </c>
       <c r="AB9" t="n">
-        <v>859.2601067630225</v>
+        <v>957.4321585343638</v>
       </c>
       <c r="AC9" t="n">
-        <v>777.2535281526931</v>
+        <v>866.0561770883176</v>
       </c>
       <c r="AD9" t="n">
-        <v>628002.0474112306</v>
+        <v>699752.4394353852</v>
       </c>
       <c r="AE9" t="n">
-        <v>859260.1067630225</v>
+        <v>957432.1585343638</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.368359340808006e-06</v>
+        <v>2.567578833905979e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.28761574074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>777253.5281526931</v>
+        <v>866056.1770883176</v>
       </c>
     </row>
     <row r="10">
@@ -24839,28 +24839,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>630.37548569742</v>
+        <v>702.1258777215746</v>
       </c>
       <c r="AB10" t="n">
-        <v>862.507549734894</v>
+        <v>960.6796015062353</v>
       </c>
       <c r="AC10" t="n">
-        <v>780.191039725144</v>
+        <v>868.9936886607686</v>
       </c>
       <c r="AD10" t="n">
-        <v>630375.48569742</v>
+        <v>702125.8777215746</v>
       </c>
       <c r="AE10" t="n">
-        <v>862507.5497348941</v>
+        <v>960679.6015062353</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.367985690900237e-06</v>
+        <v>2.566877720122584e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.29050925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>780191.039725144</v>
+        <v>868993.6886607686</v>
       </c>
     </row>
   </sheetData>
@@ -25136,28 +25136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.4144370976987</v>
+        <v>444.5252990944226</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.1856184855961</v>
+        <v>608.2191252931061</v>
       </c>
       <c r="AC2" t="n">
-        <v>459.6850963003252</v>
+        <v>550.1715456160349</v>
       </c>
       <c r="AD2" t="n">
-        <v>371414.4370976987</v>
+        <v>444525.2990944226</v>
       </c>
       <c r="AE2" t="n">
-        <v>508185.6184855961</v>
+        <v>608219.1252931061</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.425814003383292e-06</v>
+        <v>3.565852618104655e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.91782407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>459685.0963003252</v>
+        <v>550171.5456160349</v>
       </c>
     </row>
   </sheetData>
@@ -25433,28 +25433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>753.7004689435784</v>
+        <v>829.3128464179581</v>
       </c>
       <c r="AB2" t="n">
-        <v>1031.246232526562</v>
+        <v>1134.702423169675</v>
       </c>
       <c r="AC2" t="n">
-        <v>932.825539457404</v>
+        <v>1026.408016467214</v>
       </c>
       <c r="AD2" t="n">
-        <v>753700.4689435783</v>
+        <v>829312.8464179581</v>
       </c>
       <c r="AE2" t="n">
-        <v>1031246.232526562</v>
+        <v>1134702.423169675</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.198215142443172e-06</v>
+        <v>2.467464622101125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.19560185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>932825.5394574041</v>
+        <v>1026408.016467214</v>
       </c>
     </row>
     <row r="3">
@@ -25539,28 +25539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>544.8218770488695</v>
+        <v>620.3488241601267</v>
       </c>
       <c r="AB3" t="n">
-        <v>745.4493280231147</v>
+        <v>848.7886290744816</v>
       </c>
       <c r="AC3" t="n">
-        <v>674.3046904012909</v>
+        <v>767.7814335979352</v>
       </c>
       <c r="AD3" t="n">
-        <v>544821.8770488695</v>
+        <v>620348.8241601267</v>
       </c>
       <c r="AE3" t="n">
-        <v>745449.3280231147</v>
+        <v>848788.6290744815</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.420433434977526e-06</v>
+        <v>2.925075076008605e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97627314814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>674304.6904012909</v>
+        <v>767781.4335979352</v>
       </c>
     </row>
     <row r="4">
@@ -25645,28 +25645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>494.1336912255878</v>
+        <v>558.8467808710531</v>
       </c>
       <c r="AB4" t="n">
-        <v>676.0955159747656</v>
+        <v>764.6388201677148</v>
       </c>
       <c r="AC4" t="n">
-        <v>611.5699088361496</v>
+        <v>691.6627643482317</v>
       </c>
       <c r="AD4" t="n">
-        <v>494133.6912255878</v>
+        <v>558846.7808710531</v>
       </c>
       <c r="AE4" t="n">
-        <v>676095.5159747656</v>
+        <v>764638.8201677148</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.479515282595786e-06</v>
+        <v>3.046741347484006e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.49594907407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>611569.9088361496</v>
+        <v>691662.7643482317</v>
       </c>
     </row>
     <row r="5">
@@ -25751,28 +25751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>495.5480327954226</v>
+        <v>560.2611224408879</v>
       </c>
       <c r="AB5" t="n">
-        <v>678.03068050696</v>
+        <v>766.5739846999091</v>
       </c>
       <c r="AC5" t="n">
-        <v>613.3203839814119</v>
+        <v>693.4132394934938</v>
       </c>
       <c r="AD5" t="n">
-        <v>495548.0327954225</v>
+        <v>560261.1224408878</v>
       </c>
       <c r="AE5" t="n">
-        <v>678030.68050696</v>
+        <v>766573.9846999091</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.48163164728659e-06</v>
+        <v>3.051099542283125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>613320.3839814118</v>
+        <v>693413.2394934938</v>
       </c>
     </row>
   </sheetData>
@@ -26048,28 +26048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>977.6998776988727</v>
+        <v>1067.790336329061</v>
       </c>
       <c r="AB2" t="n">
-        <v>1337.732105742023</v>
+        <v>1460.997845750374</v>
       </c>
       <c r="AC2" t="n">
-        <v>1210.060831088806</v>
+        <v>1321.562261875313</v>
       </c>
       <c r="AD2" t="n">
-        <v>977699.8776988727</v>
+        <v>1067790.336329061</v>
       </c>
       <c r="AE2" t="n">
-        <v>1337732.105742023</v>
+        <v>1460997.845750374</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.048517864366349e-06</v>
+        <v>2.077306933803072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.61921296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>1210060.831088806</v>
+        <v>1321562.261875313</v>
       </c>
     </row>
     <row r="3">
@@ -26154,28 +26154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>685.442457822696</v>
+        <v>764.1862682695394</v>
       </c>
       <c r="AB3" t="n">
-        <v>937.8526103800497</v>
+        <v>1045.59336576516</v>
       </c>
       <c r="AC3" t="n">
-        <v>848.3452735297826</v>
+        <v>945.8034024360378</v>
       </c>
       <c r="AD3" t="n">
-        <v>685442.4578226961</v>
+        <v>764186.2682695393</v>
       </c>
       <c r="AE3" t="n">
-        <v>937852.6103800497</v>
+        <v>1045593.36576516</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.298011345938649e-06</v>
+        <v>2.571599455487494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.61863425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>848345.2735297827</v>
+        <v>945803.4024360378</v>
       </c>
     </row>
     <row r="4">
@@ -26260,28 +26260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>593.856453619934</v>
+        <v>661.4242975925752</v>
       </c>
       <c r="AB4" t="n">
-        <v>812.5405989404885</v>
+        <v>904.9899039467522</v>
       </c>
       <c r="AC4" t="n">
-        <v>734.9928645855008</v>
+        <v>818.6189376753812</v>
       </c>
       <c r="AD4" t="n">
-        <v>593856.4536199339</v>
+        <v>661424.2975925752</v>
       </c>
       <c r="AE4" t="n">
-        <v>812540.5989404885</v>
+        <v>904989.9039467522</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.391288400755153e-06</v>
+        <v>2.756398474483849e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>734992.8645855008</v>
+        <v>818618.9376753812</v>
       </c>
     </row>
     <row r="5">
@@ -26366,28 +26366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>540.744210706426</v>
+        <v>608.1414624784751</v>
       </c>
       <c r="AB5" t="n">
-        <v>739.8700850394408</v>
+        <v>832.0859782708574</v>
       </c>
       <c r="AC5" t="n">
-        <v>669.2579225374619</v>
+        <v>752.6728603446913</v>
       </c>
       <c r="AD5" t="n">
-        <v>540744.2107064259</v>
+        <v>608141.4624784751</v>
       </c>
       <c r="AE5" t="n">
-        <v>739870.0850394408</v>
+        <v>832085.9782708574</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.44353034347095e-06</v>
+        <v>2.859899381361054e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.34548611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>669257.922537462</v>
+        <v>752672.8603446913</v>
       </c>
     </row>
     <row r="6">
@@ -26472,28 +26472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>538.5364939011146</v>
+        <v>605.9337456731637</v>
       </c>
       <c r="AB6" t="n">
-        <v>736.8493895088221</v>
+        <v>829.065282740239</v>
       </c>
       <c r="AC6" t="n">
-        <v>666.5255179487129</v>
+        <v>749.9404557559423</v>
       </c>
       <c r="AD6" t="n">
-        <v>538536.4939011146</v>
+        <v>605933.7456731637</v>
       </c>
       <c r="AE6" t="n">
-        <v>736849.3895088221</v>
+        <v>829065.2827402391</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.445284948264222e-06</v>
+        <v>2.863375576499942e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.33101851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>666525.5179487129</v>
+        <v>749940.4557559423</v>
       </c>
     </row>
   </sheetData>
